--- a/dev/assets/excelTemplate/datos-pages-02.xlsx
+++ b/dev/assets/excelTemplate/datos-pages-02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
+    <t>Cobros</t>
+  </si>
+  <si>
     <t>Nombre</t>
-  </si>
-  <si>
-    <t>Librería de Personal</t>
   </si>
   <si>
     <t>"1"</t>
@@ -166,6 +166,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -180,31 +189,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,34 +487,53 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="14.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -616,9 +632,8 @@
   </sheetData>
   <autoFilter ref="A2:AF2"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>